--- a/data/trans_orig/P36BPD04_R_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>166535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148831</v>
+        <v>147681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186928</v>
+        <v>184824</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5223067108620636</v>
+        <v>0.5223067108620637</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4667822208692222</v>
+        <v>0.4631756318318184</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5862647309695044</v>
+        <v>0.579668013273215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>261</v>
@@ -762,19 +762,19 @@
         <v>154101</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>140383</v>
+        <v>137886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168786</v>
+        <v>168268</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4875665249151827</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4441649609607641</v>
+        <v>0.436264936904273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5340312044320212</v>
+        <v>0.5323922110029017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>435</v>
@@ -783,19 +783,19 @@
         <v>320636</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>295458</v>
+        <v>296488</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>341577</v>
+        <v>345268</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5050128014950365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4653574978354669</v>
+        <v>0.4669795448311727</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5379961022560481</v>
+        <v>0.5438096620462999</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>152310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131917</v>
+        <v>134021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170014</v>
+        <v>171164</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4776932891379363</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4137352690304957</v>
+        <v>0.4203319867267854</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5332177791307777</v>
+        <v>0.5368243681681817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>277</v>
@@ -833,19 +833,19 @@
         <v>161960</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147275</v>
+        <v>147793</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175678</v>
+        <v>178175</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5124334750848174</v>
+        <v>0.5124334750848173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4659687955679788</v>
+        <v>0.4676077889970983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.555835039039236</v>
+        <v>0.5637350630957272</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>434</v>
@@ -854,19 +854,19 @@
         <v>314270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>293329</v>
+        <v>289638</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>339448</v>
+        <v>338418</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4949871985049636</v>
+        <v>0.4949871985049637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4620038977439521</v>
+        <v>0.4561903379536999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.534642502164533</v>
+        <v>0.5330204551688271</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>353040</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>326107</v>
+        <v>326515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>381322</v>
+        <v>380769</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6653016459745533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6145454027530234</v>
+        <v>0.6153152000673886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7185977948921296</v>
+        <v>0.7175561740115196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>538</v>
@@ -979,19 +979,19 @@
         <v>404855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>385492</v>
+        <v>385038</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>423603</v>
+        <v>423386</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7408228987750304</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7053907932138515</v>
+        <v>0.7045598949375597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7751275888558359</v>
+        <v>0.77473139600386</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>793</v>
@@ -1000,19 +1000,19 @@
         <v>757896</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>722529</v>
+        <v>724968</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>788229</v>
+        <v>791840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7036178220121959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6707843612487873</v>
+        <v>0.6730484789757202</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7317791491363319</v>
+        <v>0.735131498275463</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>177607</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149325</v>
+        <v>149878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>204540</v>
+        <v>204132</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3346983540254467</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2814022051078713</v>
+        <v>0.2824438259884803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3854545972469768</v>
+        <v>0.3846847999326117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>179</v>
@@ -1050,19 +1050,19 @@
         <v>141639</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>122891</v>
+        <v>123108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>161002</v>
+        <v>161456</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2591771012249696</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2248724111441641</v>
+        <v>0.2252686039961398</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2946092067861484</v>
+        <v>0.2954401050624405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>306</v>
@@ -1071,19 +1071,19 @@
         <v>319245</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>288912</v>
+        <v>285301</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>354612</v>
+        <v>352173</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2963821779878041</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2682208508636685</v>
+        <v>0.264868501724537</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3292156387512138</v>
+        <v>0.3269515210242802</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>221586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>204777</v>
+        <v>206436</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>236644</v>
+        <v>238226</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7012361390778216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6480416797383864</v>
+        <v>0.6532935752587908</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7488900789308139</v>
+        <v>0.7538974572809789</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>446</v>
@@ -1196,19 +1196,19 @@
         <v>290742</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>278322</v>
+        <v>277213</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>302484</v>
+        <v>303039</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.823167316138168</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7880034788960452</v>
+        <v>0.7848622635035487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8564122880083231</v>
+        <v>0.8579832381674299</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>712</v>
@@ -1217,19 +1217,19 @@
         <v>512328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>491345</v>
+        <v>489193</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>532548</v>
+        <v>531370</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7655912791993645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7342356984631012</v>
+        <v>0.7310197289477531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7958078985653617</v>
+        <v>0.7940471929396172</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>94407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79349</v>
+        <v>77767</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>111216</v>
+        <v>109557</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2987638609221784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2511099210691862</v>
+        <v>0.2461025427190209</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3519583202616137</v>
+        <v>0.3467064247412091</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -1267,19 +1267,19 @@
         <v>62457</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50715</v>
+        <v>50160</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74877</v>
+        <v>75986</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1768326838618319</v>
+        <v>0.176832683861832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1435877119916769</v>
+        <v>0.1420167618325699</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2119965211039551</v>
+        <v>0.2151377364964512</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>178</v>
@@ -1288,19 +1288,19 @@
         <v>156864</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>136644</v>
+        <v>137822</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>177847</v>
+        <v>179999</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2344087208006355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2041921014346383</v>
+        <v>0.2059528070603828</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2657643015368989</v>
+        <v>0.2689802710522466</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>328372</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>307454</v>
+        <v>307099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>342107</v>
+        <v>341605</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.880010815799216</v>
+        <v>0.8800108157992159</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8239526836761618</v>
+        <v>0.8230007559483575</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9168209779976534</v>
+        <v>0.9154743194350308</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>525</v>
@@ -1413,19 +1413,19 @@
         <v>365430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>348952</v>
+        <v>349050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>377178</v>
+        <v>377732</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8660274094295114</v>
+        <v>0.8660274094295115</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8269763675452678</v>
+        <v>0.8272091263378742</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8938690322622902</v>
+        <v>0.8951821206306497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>778</v>
@@ -1434,19 +1434,19 @@
         <v>693802</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>668680</v>
+        <v>668353</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>713104</v>
+        <v>714714</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8725898516383407</v>
+        <v>0.8725898516383405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8409940659365215</v>
+        <v>0.8405821152882514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8968648849998324</v>
+        <v>0.8988900846991389</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>44773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31038</v>
+        <v>31540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65691</v>
+        <v>66046</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1199891842007841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08317902200234656</v>
+        <v>0.0845256805649692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1760473163238378</v>
+        <v>0.1769992440516425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>74</v>
@@ -1484,19 +1484,19 @@
         <v>56531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44783</v>
+        <v>44229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73009</v>
+        <v>72911</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1339725905704887</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1061309677377099</v>
+        <v>0.1048178793693503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1730236324547323</v>
+        <v>0.1727908736621239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -1505,19 +1505,19 @@
         <v>101305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>82003</v>
+        <v>80393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>126427</v>
+        <v>126754</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1274101483616594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1031351150001677</v>
+        <v>0.101109915300861</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1590059340634786</v>
+        <v>0.1594178847117485</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>193064</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>184888</v>
+        <v>184995</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>198534</v>
+        <v>198652</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9387301230767932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8989753845144655</v>
+        <v>0.8994986744655884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9653282978619691</v>
+        <v>0.9659003335194113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>479</v>
@@ -1630,19 +1630,19 @@
         <v>220174</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>213798</v>
+        <v>213066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>223540</v>
+        <v>223250</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9706849333048807</v>
+        <v>0.9706849333048808</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9425750696016201</v>
+        <v>0.9393499231232402</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9855256688880175</v>
+        <v>0.9842478427275058</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>744</v>
@@ -1651,19 +1651,19 @@
         <v>413238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>403024</v>
+        <v>404182</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>419980</v>
+        <v>419979</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9554891904421606</v>
+        <v>0.9554891904421609</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9318735102844924</v>
+        <v>0.9345499247459893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9710791961060491</v>
+        <v>0.9710763779872937</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>12601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7131</v>
+        <v>7013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20777</v>
+        <v>20670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0612698769232068</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03467170213803098</v>
+        <v>0.03409966648058859</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1010246154855344</v>
+        <v>0.1005013255344115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1701,19 +1701,19 @@
         <v>6649</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3283</v>
+        <v>3573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13025</v>
+        <v>13757</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.02931506669511932</v>
+        <v>0.02931506669511931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01447433111198287</v>
+        <v>0.01575215727249424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05742493039837999</v>
+        <v>0.06065007687676031</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1722,19 +1722,19 @@
         <v>19250</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12508</v>
+        <v>12509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29464</v>
+        <v>28306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04451080955783924</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02892080389395105</v>
+        <v>0.02892362201270624</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06812648971550982</v>
+        <v>0.06545007525401098</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>194202</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>179076</v>
+        <v>178548</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>207773</v>
+        <v>207490</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7173893507309163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6615137896622266</v>
+        <v>0.6595607408275797</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7675190526247807</v>
+        <v>0.7664733281364867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>380</v>
@@ -1847,19 +1847,19 @@
         <v>202195</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189148</v>
+        <v>189595</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>214470</v>
+        <v>213700</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7666178408913518</v>
+        <v>0.7666178408913513</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7171480653827742</v>
+        <v>0.7188425432996868</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8131547304952078</v>
+        <v>0.8102357367379303</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>664</v>
@@ -1868,19 +1868,19 @@
         <v>396398</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>377040</v>
+        <v>376553</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>414582</v>
+        <v>413771</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7416832079770216</v>
+        <v>0.7416832079770217</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7054631363922218</v>
+        <v>0.7045520661685242</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7757078218852974</v>
+        <v>0.7741897983496973</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>76505</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62934</v>
+        <v>63217</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91631</v>
+        <v>92159</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2826106492690837</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2324809473752191</v>
+        <v>0.2335266718635133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3384862103377732</v>
+        <v>0.3404392591724202</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1918,19 +1918,19 @@
         <v>61555</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49280</v>
+        <v>50050</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74602</v>
+        <v>74155</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2333821591086484</v>
+        <v>0.2333821591086483</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1868452695047926</v>
+        <v>0.1897642632620697</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2828519346172257</v>
+        <v>0.2811574567003131</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>167</v>
@@ -1939,19 +1939,19 @@
         <v>138059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119875</v>
+        <v>120686</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>157417</v>
+        <v>157904</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2583167920229784</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2242921781147026</v>
+        <v>0.2258102016503024</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2945368636077781</v>
+        <v>0.2954479338314758</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>531144</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>501090</v>
+        <v>501897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>556894</v>
+        <v>558126</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7402832578191597</v>
+        <v>0.7402832578191598</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6983959675420436</v>
+        <v>0.6995202332653512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7761726197603031</v>
+        <v>0.7778897713765879</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>742</v>
@@ -2064,19 +2064,19 @@
         <v>575537</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>549056</v>
+        <v>551121</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>599474</v>
+        <v>600716</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7454591066869916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7111594227844563</v>
+        <v>0.713834567215346</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7764635654027138</v>
+        <v>0.7780724363695439</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1194</v>
@@ -2085,19 +2085,19 @@
         <v>1106681</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1070887</v>
+        <v>1061386</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1147925</v>
+        <v>1141746</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7429659907328111</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7189360173154266</v>
+        <v>0.7125579339960054</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.770655540110401</v>
+        <v>0.7665070460706163</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>186343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>160593</v>
+        <v>159361</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>216397</v>
+        <v>215590</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2597167421808402</v>
+        <v>0.2597167421808401</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2238273802396969</v>
+        <v>0.2221102286234121</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3016040324579565</v>
+        <v>0.3004797667346489</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>218</v>
@@ -2135,19 +2135,19 @@
         <v>196520</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>172583</v>
+        <v>171341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>223001</v>
+        <v>220936</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2545408933130083</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2235364345972863</v>
+        <v>0.2219275636304561</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2888405772155435</v>
+        <v>0.2861654327846542</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>363</v>
@@ -2156,19 +2156,19 @@
         <v>382863</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>341619</v>
+        <v>347798</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>418657</v>
+        <v>428158</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2570340092671889</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.229344459889599</v>
+        <v>0.2334929539293834</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2810639826845738</v>
+        <v>0.2874420660039946</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>694732</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>673244</v>
+        <v>674294</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>712653</v>
+        <v>713381</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.870512632991214</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8435876714141288</v>
+        <v>0.8449033207783586</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8929686228606711</v>
+        <v>0.8938799382899091</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>952</v>
@@ -2281,19 +2281,19 @@
         <v>743760</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>727389</v>
+        <v>728695</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>759019</v>
+        <v>759467</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.894661232680079</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8749691901486982</v>
+        <v>0.8765404826662504</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9130162728429184</v>
+        <v>0.9135552126904094</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1618</v>
@@ -2302,19 +2302,19 @@
         <v>1438491</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1409031</v>
+        <v>1411685</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1462421</v>
+        <v>1462368</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8828333947220798</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.86475299674221</v>
+        <v>0.8663815895294738</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8975193824537913</v>
+        <v>0.8974867977073985</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>103340</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85419</v>
+        <v>84691</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>124828</v>
+        <v>123778</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1294873670087859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1070313771393291</v>
+        <v>0.1061200617100908</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1564123285858717</v>
+        <v>0.1550966792216411</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>110</v>
@@ -2352,19 +2352,19 @@
         <v>87571</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>72312</v>
+        <v>71864</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103942</v>
+        <v>102636</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.105338767319921</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0869837271570814</v>
+        <v>0.08644478730959046</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1250308098513017</v>
+        <v>0.1234595173337495</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>206</v>
@@ -2373,19 +2373,19 @@
         <v>190912</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>166982</v>
+        <v>167035</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>220372</v>
+        <v>217718</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1171666052779201</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1024806175462087</v>
+        <v>0.1025132022926015</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.13524700325779</v>
+        <v>0.1336184104705261</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>2682675</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2627174</v>
+        <v>2626347</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2739102</v>
+        <v>2741084</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.759843548727047</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7441234551250635</v>
+        <v>0.7438892186784272</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7758259766649906</v>
+        <v>0.776387560975671</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4323</v>
@@ -2498,19 +2498,19 @@
         <v>2956795</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2907958</v>
+        <v>2907273</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3001678</v>
+        <v>3000549</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7923500154718549</v>
+        <v>0.7923500154718548</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7792628773010393</v>
+        <v>0.7790793578075638</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8043776058370031</v>
+        <v>0.8040748818248217</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6938</v>
@@ -2519,19 +2519,19 @@
         <v>5639470</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5563842</v>
+        <v>5562373</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5713424</v>
+        <v>5714151</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.776546887677106</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7661331051691534</v>
+        <v>0.7659307950908738</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7867302575493307</v>
+        <v>0.7868303033387067</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>847887</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>791460</v>
+        <v>789478</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>903388</v>
+        <v>904215</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2401564512729529</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2241740233350093</v>
+        <v>0.2236124390243292</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2558765448749365</v>
+        <v>0.2561107813215732</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1034</v>
@@ -2569,19 +2569,19 @@
         <v>774883</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>730000</v>
+        <v>731129</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>823720</v>
+        <v>824405</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2076499845281451</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1956223941629968</v>
+        <v>0.1959251181751782</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2207371226989607</v>
+        <v>0.2209206421924363</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1793</v>
@@ -2590,19 +2590,19 @@
         <v>1622770</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1548816</v>
+        <v>1548089</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1698398</v>
+        <v>1699867</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.223453112322894</v>
+        <v>0.2234531123228939</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2132697424506691</v>
+        <v>0.2131696966612933</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2338668948308466</v>
+        <v>0.2340692049091261</v>
       </c>
     </row>
     <row r="30">
